--- a/Bin/Server/DataConfig/Excel/Map.xlsx
+++ b/Bin/Server/DataConfig/Excel/Map.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Desktop/NoahGameFrame/_Out/Server/NFDataCfg/Excel_Ini/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\cpp\ArkGameFrame\Bin\Server\DataConfig\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27525" windowHeight="17535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Property1" sheetId="1" r:id="rId1"/>
-    <sheet name="Record_Station" sheetId="2" r:id="rId2"/>
+    <sheet name="DataNode" sheetId="1" r:id="rId1"/>
+    <sheet name="DataTable" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -448,8 +448,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -460,6 +460,11 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -668,7 +673,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -688,7 +693,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -696,6 +701,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1029,25 +1037,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="9" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="9" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
@@ -3856,9 +3864,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7 F8 H8 F1:F4 F5:F6 F109:F1048576 H1:H4 H5:H6 H109:H1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:J7 F8 H8 F1:F4 F5:F6 F109:F1048576 H1:H4 H5:H6 H109:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3869,27 +3878,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="3" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="9.33203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.375" style="3" customWidth="1"/>
     <col min="10" max="10" width="19" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.1640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" style="3" customWidth="1"/>
     <col min="12" max="12" width="9" style="3"/>
-    <col min="13" max="14" width="12.6640625" style="3" customWidth="1"/>
+    <col min="13" max="14" width="12.625" style="3" customWidth="1"/>
     <col min="15" max="15" width="14" style="3" customWidth="1"/>
     <col min="16" max="16" width="9" style="3"/>
     <col min="17" max="17" width="16.5" style="3" customWidth="1"/>
@@ -4021,15 +4030,16 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 G1:G7 G11:G1048576 A4:B6 D1:F7 D11:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 D10:F10 G10 G1:G7 G11:G1048576 A4:B6 D1:F7 D11:F1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 C8 C9 E9 F9 M10 N10 M1:M9 M11:M1048576 N1:N9 N11:N1048576"/>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 L10 A8:A9 L1:L9 L11:L1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B8 C8 C9 E9 F9 M10 N10 M1:M9 M11:M1048576 N1:N9 N11:N1048576" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B9 L10 A8:A9 L1:L9 L11:L1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"int,string,float,object"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 C11:C16374 A2:B3 B16375:C1048576">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C1:C7 C11:C16374 A2:B3 B16375:C1048576" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
